--- a/sovi_data_Kab.xlsx
+++ b/sovi_data_Kab.xlsx
@@ -5,16 +5,16 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Drive\deden-research\04 Social Vulnerability\01 PDP SOVI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Drive\deden-RMarkdown &amp; Github\PDP-SoVI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C628657-905D-44D9-9398-13B740EBC520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E373D189-8460-45BE-91C6-8C30C1A225E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data 15 var" sheetId="1" r:id="rId1"/>
-    <sheet name="Data Sovi PDP" sheetId="2" r:id="rId2"/>
+    <sheet name="Data Sovi PDP 19 var" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1978,7 +1978,7 @@
   <dimension ref="A1:Q512"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="Q1" sqref="C1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -29137,10 +29137,10 @@
   <dimension ref="A1:U512"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Q502" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X511" sqref="X511"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1:U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
